--- a/Quest_With_SQR_MATLAB/Divided Program/Functions/output.xlsx
+++ b/Quest_With_SQR_MATLAB/Divided Program/Functions/output.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4128C9D6-CD7F-484D-8161-291FC4D13B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,24 +61,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -123,19 +123,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,20 +424,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.37890625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2">
+        <v>-0.064996872653581464</v>
+      </c>
       <c r="C1" s="1">
         <v>-4.1895292141403565E-3</v>
       </c>
@@ -494,11 +502,13 @@
         <v>4.1895292141403565E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>0.023858602032224313</v>
+      </c>
       <c r="C2" s="1">
         <v>-0.26959287852966413</v>
       </c>
@@ -561,11 +571,13 @@
         <v>0.26959287852966413</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>-0.11941628980163718</v>
+      </c>
       <c r="C3" s="1">
         <v>0.28637863747385861</v>
       </c>
@@ -628,11 +640,13 @@
         <v>-0.28637863747385861</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>0.99042714188593084</v>
+      </c>
       <c r="C4" s="1">
         <v>0.91939621692155649</v>
       </c>

--- a/Quest_With_SQR_MATLAB/Divided Program/Functions/output.xlsx
+++ b/Quest_With_SQR_MATLAB/Divided Program/Functions/output.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91808\Documents\GitHub\QUEST-ALGORITHM\Quest_With_SQR_MATLAB\Divided Program\Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4128C9D6-CD7F-484D-8161-291FC4D13B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097F0570-71C8-435A-9248-BF9719E5D3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,24 +61,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -123,25 +129,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,22 +432,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.37890625" customWidth="true"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>-0.064996872653581464</v>
-      </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="1">
         <v>-4.1895292141403565E-3</v>
       </c>
@@ -491,7 +497,9 @@
       <c r="S1" s="1">
         <v>0.41367443995030023</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="T1" s="8">
+        <v>-6.4996872653581464E-2</v>
+      </c>
       <c r="U1" s="1">
         <v>7.8248894438885261E-2</v>
       </c>
@@ -502,13 +510,11 @@
         <v>4.1895292141403565E-3</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.023858602032224313</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="1">
         <v>-0.26959287852966413</v>
       </c>
@@ -560,7 +566,9 @@
       <c r="S2" s="1">
         <v>-0.22707448252613296</v>
       </c>
-      <c r="T2" s="1"/>
+      <c r="T2" s="8">
+        <v>2.3858602032224313E-2</v>
+      </c>
       <c r="U2" s="1">
         <v>0.26087485665887911</v>
       </c>
@@ -571,13 +579,11 @@
         <v>0.26959287852966413</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>-0.11941628980163718</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="1">
         <v>0.28637863747385861</v>
       </c>
@@ -629,7 +635,9 @@
       <c r="S3" s="1">
         <v>-0.68623167100009941</v>
       </c>
-      <c r="T3" s="1"/>
+      <c r="T3" s="8">
+        <v>-0.11941628980163718</v>
+      </c>
       <c r="U3" s="1">
         <v>0.2481684254770474</v>
       </c>
@@ -640,13 +648,11 @@
         <v>-0.28637863747385861</v>
       </c>
     </row>
-    <row r="4" ht="15" thickBot="true" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.99042714188593084</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="1">
         <v>0.91939621692155649</v>
       </c>
@@ -698,7 +704,9 @@
       <c r="S4" s="1">
         <v>0.55353114712155604</v>
       </c>
-      <c r="T4" s="1"/>
+      <c r="T4" s="8">
+        <v>0.99042714188593084</v>
+      </c>
       <c r="U4" s="1">
         <v>0.92964178707636891</v>
       </c>
